--- a/public/templates/order_registration_template.xlsx
+++ b/public/templates/order_registration_template.xlsx
@@ -1,55 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="주문등록-양식파일" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="주문등록-양식파일" state="visible" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+  <si>
+    <t>주문자명</t>
+  </si>
+  <si>
+    <t>주문자 전화번호</t>
+  </si>
+  <si>
+    <t>주문자 주소</t>
+  </si>
+  <si>
+    <t>수령자명</t>
+  </si>
+  <si>
+    <t>수령자휴대폰번호</t>
+  </si>
+  <si>
+    <t>수령자 전화번호</t>
+  </si>
+  <si>
+    <t>수령자 주소</t>
+  </si>
+  <si>
+    <t>배송메시지</t>
+  </si>
+  <si>
+    <t>상품코드</t>
+  </si>
+  <si>
+    <t>상품명</t>
+  </si>
+  <si>
+    <t>자체주문번호</t>
+  </si>
+  <si>
+    <t>필수</t>
+  </si>
+  <si>
+    <t>선택</t>
+  </si>
+  <si>
+    <t>필수(중복x)</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 설명 부분 _x000d_
+은 삭제 후 _x000d_
+작성해 주세요.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,14 +101,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,94 +442,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
+  <sheetFormatPr customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>주문자명</v>
-      </c>
-      <c r="B1" t="str">
-        <v>주문자 전화번호</v>
-      </c>
-      <c r="C1" t="str">
-        <v>주문자 주소</v>
-      </c>
-      <c r="D1" t="str">
-        <v>수령자명</v>
-      </c>
-      <c r="E1" t="str">
-        <v>수령자휴대폰번호</v>
-      </c>
-      <c r="F1" t="str">
-        <v>수령자 전화번호</v>
-      </c>
-      <c r="G1" t="str">
-        <v>수령자 주소</v>
-      </c>
-      <c r="H1" t="str">
-        <v>배송메시지</v>
-      </c>
-      <c r="I1" t="str">
-        <v>상품코드</v>
-      </c>
-      <c r="J1" t="str">
-        <v>상품명</v>
-      </c>
-      <c r="K1" t="str">
-        <v>자체주문번호</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
-      <c r="A2" t="str">
-        <v>필수</v>
-      </c>
-      <c r="B2" t="str">
-        <v>필수</v>
-      </c>
-      <c r="C2" t="str">
-        <v>선택</v>
-      </c>
-      <c r="D2" t="str">
-        <v>필수</v>
-      </c>
-      <c r="E2" t="str">
-        <v>필수</v>
-      </c>
-      <c r="F2" t="str">
-        <v>선택</v>
-      </c>
-      <c r="G2" t="str">
-        <v>필수</v>
-      </c>
-      <c r="H2" t="str">
-        <v>선택</v>
-      </c>
-      <c r="I2" t="str">
-        <v>필수</v>
-      </c>
-      <c r="J2" t="str">
-        <v>필수</v>
-      </c>
-      <c r="K2" t="str">
-        <v>필수(중복x)</v>
-      </c>
-      <c r="L2" t="str">
-        <v>→</v>
-      </c>
-      <c r="M2" t="str" xml:space="preserve">
-        <v xml:space="preserve">이 설명 부분 _x000d_
-은 삭제 후 _x000d_
-작성해 주세요.</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M2"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/public/templates/order_registration_template.xlsx
+++ b/public/templates/order_registration_template.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="주문등록-양식파일" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="주문등록" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+  <si>
+    <t>자체주문번호</t>
+  </si>
   <si>
     <t>주문자명</t>
   </si>
   <si>
-    <t>주문자 전화번호</t>
-  </si>
-  <si>
-    <t>주문자 주소</t>
+    <t>주문자전화번호</t>
   </si>
   <si>
     <t>수령자명</t>
@@ -28,10 +28,10 @@
     <t>수령자휴대폰번호</t>
   </si>
   <si>
-    <t>수령자 전화번호</t>
-  </si>
-  <si>
-    <t>수령자 주소</t>
+    <t>우편번호</t>
+  </si>
+  <si>
+    <t>수령자주소</t>
   </si>
   <si>
     <t>배송메시지</t>
@@ -43,31 +43,47 @@
     <t>상품명</t>
   </si>
   <si>
-    <t>자체주문번호</t>
-  </si>
-  <si>
-    <t>필수</t>
-  </si>
-  <si>
-    <t>선택</t>
-  </si>
-  <si>
-    <t>필수(중복x)</t>
-  </si>
-  <si>
-    <t>→</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 설명 부분 _x000d_
-은 삭제 후 _x000d_
-작성해 주세요.</t>
+    <t>수량</t>
+  </si>
+  <si>
+    <t>옵션</t>
+  </si>
+  <si>
+    <t>쇼핑몰주문번호 또는 자체관리번호</t>
+  </si>
+  <si>
+    <t>주문자 이름</t>
+  </si>
+  <si>
+    <t>주문자 연락처</t>
+  </si>
+  <si>
+    <t>받는분 이름</t>
+  </si>
+  <si>
+    <t>받는분 휴대폰</t>
+  </si>
+  <si>
+    <t>우편번호(선택)</t>
+  </si>
+  <si>
+    <t>전체주소</t>
+  </si>
+  <si>
+    <t>배송시 요청사항</t>
+  </si>
+  <si>
+    <t>주문수량</t>
+  </si>
+  <si>
+    <t>옵션(선택)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -75,8 +91,16 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <color rgb="FF666666"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,11 +109,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,13 +126,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,89 +484,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1"/>
+  <dimension ref="A1:L2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" ht="25" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>